--- a/tmp/clc.xlsx
+++ b/tmp/clc.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="269" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="269"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="57">
   <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>PNE-FONDEN-DD/6167/2013</t>
   </si>
   <si>
@@ -26,24 +31,18 @@
     <t>CONSERVACION DE VIAS DE COMUNICACION</t>
   </si>
   <si>
-    <t>BEGAMAG CAMINOS Y CONSTRUCCIONES SA DE CV </t>
+    <t xml:space="preserve">BEGAMAG CAMINOS Y CONSTRUCCIONES SA DE CV </t>
   </si>
   <si>
     <t>BCC1007295J8</t>
   </si>
   <si>
-    <t>+</t>
-  </si>
-  <si>
     <t>21171.401.001.009.0054</t>
   </si>
   <si>
     <t>2 %AL MILLAR FONDEN 2013</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>21171.401.001.008.0054</t>
   </si>
   <si>
@@ -56,7 +55,7 @@
     <t>401001-100104042-615645BAABA0213D</t>
   </si>
   <si>
-    <t>CONSTRUCTORES DE OBRAS CIVILES LEO S.A. DE C.V. </t>
+    <t xml:space="preserve">CONSTRUCTORES DE OBRAS CIVILES LEO S.A. DE C.V. </t>
   </si>
   <si>
     <t>COC040406BX9</t>
@@ -74,7 +73,7 @@
     <t>A-55</t>
   </si>
   <si>
-    <t>TERRACERIAS Y CONSTRUCCIONES JOBE SA DE CV </t>
+    <t xml:space="preserve">TERRACERIAS Y CONSTRUCCIONES JOBE SA DE CV </t>
   </si>
   <si>
     <t>TCJ090127MVA</t>
@@ -83,7 +82,7 @@
     <t>PROII/0949/2014</t>
   </si>
   <si>
-    <t>ARAPEC SA DE CV </t>
+    <t xml:space="preserve">ARAPEC SA DE CV </t>
   </si>
   <si>
     <t>ARA040401DYA</t>
@@ -98,7 +97,7 @@
     <t>ADICIONES Y MEJORAS A LAS VIAS DE COMUNICACION</t>
   </si>
   <si>
-    <t>CAMINOS Y AEROPISTAS DE OAXACA </t>
+    <t xml:space="preserve">CAMINOS Y AEROPISTAS DE OAXACA </t>
   </si>
   <si>
     <t>CAO890527DY3</t>
@@ -113,7 +112,7 @@
     <t>401001-100305003-411231EABKA0114D</t>
   </si>
   <si>
-    <t>ARTICULOS METALICOS PARA LA CONSTRUCCION </t>
+    <t xml:space="preserve">ARTICULOS METALICOS PARA LA CONSTRUCCION </t>
   </si>
   <si>
     <t>401001-100305003-411241EABKA0114D</t>
@@ -167,7 +166,7 @@
     <t>CONSTRUCCION DE VIAS DE COMUNICACION</t>
   </si>
   <si>
-    <t>ETECO CONSTRUCCIONES SA DE CV </t>
+    <t xml:space="preserve">ETECO CONSTRUCCIONES SA DE CV </t>
   </si>
   <si>
     <t>ECO090226L17</t>
@@ -191,42 +190,22 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="DD/MM/YYYY" numFmtId="165"/>
-    <numFmt formatCode="#,##0.00" numFmtId="166"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="1"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="11"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <charset val="1"/>
       <family val="2"/>
-      <b val="true"/>
-      <color rgb="FF000000"/>
-      <sz val="8"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -239,18 +218,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF99CC99"/>
-        <bgColor rgb="FF99CCFF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6E7CE"/>
-        <bgColor rgb="FFCCFFFF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -258,73 +237,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="2" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="166" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="3" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -361,7 +303,7 @@
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
       <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFC6E7CE"/>
+      <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
@@ -383,1103 +325,1391 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1457489878542"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="8.2834008097166"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.4291497975709"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="56.4210526315789"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="21.2793522267206"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="52.5748987854251"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="14.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="9.99595141700405"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="10.995951417004"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="9.99595141700405"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="3.57085020242915"/>
-    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="9.1417004048583"/>
+    <col min="1" max="1" width="21.140625"/>
+    <col min="2" max="2" width="8.28515625"/>
+    <col min="3" max="3" width="8.140625"/>
+    <col min="4" max="4" width="34.42578125"/>
+    <col min="5" max="5" width="56.42578125"/>
+    <col min="6" max="6" width="21.28515625"/>
+    <col min="8" max="8" width="52.5703125"/>
+    <col min="9" max="9" width="14.42578125"/>
+    <col min="10" max="10" width="10"/>
+    <col min="11" max="11" width="11"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="3.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="1">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="n">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1">
         <v>2492</v>
       </c>
-      <c r="C1" s="1" t="n">
+      <c r="C1" s="1">
         <v>356026</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4">
+        <v>59</v>
+      </c>
+      <c r="G1" s="5">
+        <v>41829</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="6">
+        <v>36949.339999999997</v>
+      </c>
+      <c r="K1" s="6">
+        <v>5911.89</v>
+      </c>
+      <c r="L1" s="6">
+        <v>42861.23</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="7">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2">
+        <v>2492</v>
+      </c>
+      <c r="C2" s="2">
+        <v>281190</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="4">
+        <v>59</v>
+      </c>
+      <c r="G2" s="5">
+        <v>41829</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="4">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="K2" s="4">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4">
+        <v>73.900000000000006</v>
+      </c>
+      <c r="M2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="N2" s="7">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="n">
-        <v>59</v>
-      </c>
-      <c r="G1" s="4" t="n">
-        <v>41829</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="5" t="n">
-        <v>36949.34</v>
-      </c>
-      <c r="K1" s="5" t="n">
-        <v>5911.89</v>
-      </c>
-      <c r="L1" s="5" t="n">
-        <v>42861.23</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N1" s="6" t="n">
-        <v>1285</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="7" t="n">
+      <c r="B3" s="1">
         <v>2492</v>
       </c>
-      <c r="C2" s="7" t="n">
-        <v>281190</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>59</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>41829</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="3" t="n">
-        <v>73.9</v>
-      </c>
-      <c r="K2" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="3" t="n">
-        <v>73.9</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N2" s="6" t="n">
-        <v>1285</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="3">
-      <c r="A3" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="n">
-        <v>2492</v>
-      </c>
-      <c r="C3" s="1" t="n">
+      <c r="C3" s="1">
         <v>281191</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="4">
         <v>59</v>
       </c>
-      <c r="G3" s="4" t="n">
+      <c r="G3" s="5">
         <v>41829</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J3" s="3" t="n">
+      <c r="H3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="4">
         <v>184.75</v>
       </c>
-      <c r="K3" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3" t="n">
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
         <v>184.75</v>
       </c>
-      <c r="M3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="6" t="n">
+      <c r="M3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3" s="7">
         <v>1285</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="1">
         <v>2493</v>
       </c>
-      <c r="C4" s="1" t="n">
+      <c r="C4" s="1">
         <v>356030</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3" t="n">
+      <c r="E4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="4">
         <v>125</v>
       </c>
-      <c r="G4" s="4" t="n">
+      <c r="G4" s="5">
         <v>41823</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="5" t="n">
-        <v>645109.81</v>
-      </c>
-      <c r="K4" s="5" t="n">
+      <c r="J4" s="6">
+        <v>645109.81000000006</v>
+      </c>
+      <c r="K4" s="6">
         <v>103217.57</v>
       </c>
-      <c r="L4" s="5" t="n">
+      <c r="L4" s="6">
         <v>748327.38</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N4" s="6" t="n">
+      <c r="M4" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
         <v>1286</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="5">
-      <c r="A5" s="0" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="7" t="n">
+      <c r="B5" s="2">
         <v>2493</v>
       </c>
-      <c r="C5" s="7" t="n">
+      <c r="C5" s="2">
         <v>281193</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="E5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="4">
         <v>125</v>
       </c>
-      <c r="G5" s="4" t="n">
+      <c r="G5" s="5">
         <v>41823</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="5" t="n">
+      <c r="J5" s="6">
         <v>1290.22</v>
       </c>
-      <c r="K5" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="5" t="n">
+      <c r="K5" s="4">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
         <v>1290.22</v>
       </c>
-      <c r="M5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N5" s="6" t="n">
+      <c r="M5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
         <v>1286</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="n">
+      <c r="B6" s="1">
         <v>2493</v>
       </c>
-      <c r="C6" s="1" t="n">
+      <c r="C6" s="1">
         <v>281194</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="4">
         <v>125</v>
       </c>
-      <c r="G6" s="4" t="n">
+      <c r="G6" s="5">
         <v>41823</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J6" s="5" t="n">
+      <c r="J6" s="6">
         <v>3225.55</v>
       </c>
-      <c r="K6" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" s="5" t="n">
+      <c r="K6" s="4">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
         <v>3225.55</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="6" t="n">
+      <c r="M6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6" s="7">
         <v>1286</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1" t="n">
+      <c r="B7" s="1">
         <v>2494</v>
       </c>
-      <c r="C7" s="1" t="n">
+      <c r="C7" s="1">
         <v>281346</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="4" t="n">
+      <c r="G7" s="5">
         <v>41781</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="5" t="n">
+      <c r="J7" s="6">
         <v>2278163.27</v>
       </c>
-      <c r="K7" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="5" t="n">
+      <c r="K7" s="4">
+        <v>0</v>
+      </c>
+      <c r="L7" s="6">
         <v>2278163.27</v>
       </c>
-      <c r="M7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N7" s="6" t="n">
+      <c r="M7" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="7">
         <v>1287</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="8">
-      <c r="A8" s="0" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="1" t="n">
+      <c r="B8" s="1">
         <v>2495</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="C8" s="1">
         <v>281348</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="4">
         <v>141</v>
       </c>
-      <c r="G8" s="4" t="n">
+      <c r="G8" s="5">
         <v>41773</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="5" t="n">
+      <c r="J8" s="6">
         <v>1917479.84</v>
       </c>
-      <c r="K8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" s="5" t="n">
+      <c r="K8" s="4">
+        <v>0</v>
+      </c>
+      <c r="L8" s="6">
         <v>1917479.84</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N8" s="6" t="n">
+      <c r="M8" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N8" s="7">
         <v>1288</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="9">
-      <c r="A9" s="0" t="s">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="1" t="n">
+      <c r="B9" s="1">
         <v>2546</v>
       </c>
-      <c r="C9" s="1" t="n">
+      <c r="C9" s="1">
         <v>372290</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="4">
         <v>2</v>
       </c>
-      <c r="G9" s="4" t="n">
+      <c r="G9" s="5">
         <v>41862</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="5" t="n">
+      <c r="J9" s="6">
         <v>405000</v>
       </c>
-      <c r="K9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="5" t="n">
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
         <v>405000</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N9" s="6" t="n">
+      <c r="M9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N9" s="7">
         <v>1308</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="10">
-      <c r="A10" s="0" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="7" t="n">
+      <c r="B10" s="2">
         <v>2546</v>
       </c>
-      <c r="C10" s="7" t="n">
+      <c r="C10" s="2">
         <v>372296</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="4">
         <v>2</v>
       </c>
-      <c r="G10" s="4" t="n">
+      <c r="G10" s="5">
         <v>41862</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="5" t="n">
+      <c r="J10" s="6">
         <v>2200</v>
       </c>
-      <c r="K10" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" s="5" t="n">
+      <c r="K10" s="4">
+        <v>0</v>
+      </c>
+      <c r="L10" s="6">
         <v>2200</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N10" s="6" t="n">
+      <c r="M10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N10" s="7">
         <v>1308</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="11">
-      <c r="A11" s="0" t="s">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="1" t="n">
+      <c r="B11" s="1">
         <v>2546</v>
       </c>
-      <c r="C11" s="1" t="n">
+      <c r="C11" s="1">
         <v>372303</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="4">
         <v>2</v>
       </c>
-      <c r="G11" s="4" t="n">
+      <c r="G11" s="5">
         <v>41862</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J11" s="3" t="n">
+      <c r="J11" s="4">
         <v>349</v>
       </c>
-      <c r="K11" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" s="3" t="n">
+      <c r="K11" s="4">
+        <v>0</v>
+      </c>
+      <c r="L11" s="4">
         <v>349</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N11" s="6" t="n">
+      <c r="M11" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N11" s="7">
         <v>1308</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="12">
-      <c r="A12" s="0" t="s">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="7" t="n">
+      <c r="B12" s="2">
         <v>2546</v>
       </c>
-      <c r="C12" s="7" t="n">
+      <c r="C12" s="2">
         <v>372309</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="4">
         <v>2</v>
       </c>
-      <c r="G12" s="4" t="n">
+      <c r="G12" s="5">
         <v>41862</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J12" s="5" t="n">
+      <c r="J12" s="6">
         <v>583768</v>
       </c>
-      <c r="K12" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" s="5" t="n">
+      <c r="K12" s="4">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6">
         <v>583768</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N12" s="6" t="n">
+      <c r="M12" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
         <v>1308</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="13">
-      <c r="A13" s="0" t="s">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="1" t="n">
+      <c r="B13" s="1">
         <v>2546</v>
       </c>
-      <c r="C13" s="1" t="n">
+      <c r="C13" s="1">
         <v>372314</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F13" s="4">
         <v>2</v>
       </c>
-      <c r="G13" s="4" t="n">
+      <c r="G13" s="5">
         <v>41862</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J13" s="5" t="n">
+      <c r="J13" s="6">
         <v>16692.5</v>
       </c>
-      <c r="K13" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" s="5" t="n">
+      <c r="K13" s="4">
+        <v>0</v>
+      </c>
+      <c r="L13" s="6">
         <v>16692.5</v>
       </c>
-      <c r="M13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N13" s="6" t="n">
+      <c r="M13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" s="7">
         <v>1308</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="14">
-      <c r="A14" s="0" t="s">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="7" t="n">
+      <c r="B14" s="2">
         <v>2546</v>
       </c>
-      <c r="C14" s="7" t="n">
+      <c r="C14" s="2">
         <v>372319</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="3" t="n">
+      <c r="F14" s="4">
         <v>2</v>
       </c>
-      <c r="G14" s="4" t="n">
+      <c r="G14" s="5">
         <v>41862</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J14" s="5" t="n">
+      <c r="J14" s="6">
         <v>17440</v>
       </c>
-      <c r="K14" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" s="5" t="n">
+      <c r="K14" s="4">
+        <v>0</v>
+      </c>
+      <c r="L14" s="6">
         <v>17440</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N14" s="6" t="n">
+      <c r="M14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7">
         <v>1308</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="15">
-      <c r="A15" s="0" t="s">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="1" t="n">
+      <c r="B15" s="1">
         <v>2546</v>
       </c>
-      <c r="C15" s="1" t="n">
+      <c r="C15" s="1">
         <v>372324</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F15" s="3" t="n">
+      <c r="F15" s="4">
         <v>2</v>
       </c>
-      <c r="G15" s="4" t="n">
+      <c r="G15" s="5">
         <v>41862</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="I15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="5" t="n">
+      <c r="J15" s="6">
         <v>405000</v>
       </c>
-      <c r="K15" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" s="5" t="n">
+      <c r="K15" s="4">
+        <v>0</v>
+      </c>
+      <c r="L15" s="6">
         <v>405000</v>
       </c>
-      <c r="M15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N15" s="6" t="n">
+      <c r="M15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7">
         <v>1308</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="16">
-      <c r="A16" s="0" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="7" t="n">
+      <c r="B16" s="2">
         <v>2546</v>
       </c>
-      <c r="C16" s="7" t="n">
+      <c r="C16" s="2">
         <v>372330</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="3" t="n">
+      <c r="F16" s="4">
         <v>2</v>
       </c>
-      <c r="G16" s="4" t="n">
+      <c r="G16" s="5">
         <v>41862</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="I16" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J16" s="5" t="n">
+      <c r="J16" s="6">
         <v>380550.5</v>
       </c>
-      <c r="K16" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" s="5" t="n">
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="6">
         <v>380550.5</v>
       </c>
-      <c r="M16" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N16" s="6" t="n">
+      <c r="M16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
         <v>1308</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="17">
-      <c r="A17" s="0" t="s">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="1" t="n">
+      <c r="B17" s="1">
         <v>2546</v>
       </c>
-      <c r="C17" s="1" t="n">
+      <c r="C17" s="1">
         <v>372333</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="3" t="n">
+      <c r="F17" s="4">
         <v>2</v>
       </c>
-      <c r="G17" s="4" t="n">
+      <c r="G17" s="5">
         <v>41862</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="I17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="5" t="n">
+      <c r="J17" s="6">
         <v>108000</v>
       </c>
-      <c r="K17" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" s="5" t="n">
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17" s="6">
         <v>108000</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="6" t="n">
+      <c r="M17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N17" s="7">
         <v>1308</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="18">
-      <c r="A18" s="0" t="s">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="7" t="n">
+      <c r="B18" s="2">
         <v>2546</v>
       </c>
-      <c r="C18" s="7" t="n">
+      <c r="C18" s="2">
         <v>372340</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="3" t="n">
+      <c r="F18" s="4">
         <v>2</v>
       </c>
-      <c r="G18" s="4" t="n">
+      <c r="G18" s="5">
         <v>41862</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J18" s="5" t="n">
+      <c r="J18" s="6">
         <v>81000</v>
       </c>
-      <c r="K18" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" s="5" t="n">
+      <c r="K18" s="4">
+        <v>0</v>
+      </c>
+      <c r="L18" s="6">
         <v>81000</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="6" t="n">
+      <c r="M18" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N18" s="7">
         <v>1308</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="19">
-      <c r="A19" s="0" t="s">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="1" t="n">
+      <c r="B19" s="1">
         <v>2556</v>
       </c>
-      <c r="C19" s="1" t="n">
+      <c r="C19" s="1">
         <v>374033</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F19" s="3" t="n">
+      <c r="F19" s="4">
         <v>25</v>
       </c>
-      <c r="G19" s="4" t="n">
+      <c r="G19" s="5">
         <v>40939</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J19" s="5" t="n">
+      <c r="J19" s="6">
         <v>49576.72</v>
       </c>
-      <c r="K19" s="5" t="n">
+      <c r="K19" s="6">
         <v>7932.28</v>
       </c>
-      <c r="L19" s="5" t="n">
+      <c r="L19" s="6">
         <v>57509</v>
       </c>
-      <c r="M19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="6" t="n">
+      <c r="M19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N19" s="7">
         <v>1322</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="20">
-      <c r="A20" s="0" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="7" t="n">
+      <c r="B20" s="2">
         <v>2556</v>
       </c>
-      <c r="C20" s="7" t="n">
+      <c r="C20" s="2">
         <v>374034</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F20" s="3" t="n">
+      <c r="F20" s="4">
         <v>23</v>
       </c>
-      <c r="G20" s="4" t="n">
+      <c r="G20" s="5">
         <v>40939</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="J20" s="5" t="n">
+      <c r="J20" s="6">
         <v>37931.08</v>
       </c>
-      <c r="K20" s="5" t="n">
+      <c r="K20" s="6">
         <v>6068.97</v>
       </c>
-      <c r="L20" s="5" t="n">
+      <c r="L20" s="6">
         <v>44000.05</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="6" t="n">
+      <c r="M20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N20" s="7">
         <v>1322</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="21">
-      <c r="A21" s="0" t="s">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B21" s="1">
         <v>2556</v>
       </c>
-      <c r="C21" s="1" t="n">
+      <c r="C21" s="1">
         <v>374038</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="3" t="n">
+      <c r="F21" s="4">
         <v>401</v>
       </c>
-      <c r="G21" s="4" t="n">
+      <c r="G21" s="5">
         <v>40918</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="J21" s="5" t="n">
+      <c r="J21" s="6">
         <v>11800</v>
       </c>
-      <c r="K21" s="5" t="n">
+      <c r="K21" s="6">
         <v>1888</v>
       </c>
-      <c r="L21" s="5" t="n">
+      <c r="L21" s="6">
         <v>13688</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="6" t="n">
+      <c r="M21" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N21" s="7">
         <v>1322</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="22">
-      <c r="A22" s="0" t="s">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="7" t="n">
+      <c r="B22" s="2">
         <v>2556</v>
       </c>
-      <c r="C22" s="7" t="n">
+      <c r="C22" s="2">
         <v>374040</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="4" t="n">
+      <c r="G22" s="5">
         <v>40916</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J22" s="5" t="n">
+      <c r="J22" s="6">
         <v>28000</v>
       </c>
-      <c r="K22" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" s="5" t="n">
+      <c r="K22" s="4">
+        <v>0</v>
+      </c>
+      <c r="L22" s="6">
         <v>28000</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="6" t="n">
+      <c r="M22" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N22" s="7">
         <v>1322</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="23">
-      <c r="A23" s="0" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>47</v>
       </c>
-      <c r="B23" s="1" t="n">
+      <c r="B23" s="1">
         <v>2556</v>
       </c>
-      <c r="C23" s="1" t="n">
+      <c r="C23" s="1">
         <v>374043</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G23" s="4" t="n">
+      <c r="G23" s="5">
         <v>40923</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J23" s="5" t="n">
+      <c r="J23" s="6">
         <v>28000</v>
       </c>
-      <c r="K23" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" s="5" t="n">
+      <c r="K23" s="4">
+        <v>0</v>
+      </c>
+      <c r="L23" s="6">
         <v>28000</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="6" t="n">
+      <c r="M23" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N23" s="7">
         <v>1322</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15" outlineLevel="0" r="24">
-      <c r="A24" s="0" t="s">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="7" t="n">
+      <c r="B24" s="2">
         <v>2556</v>
       </c>
-      <c r="C24" s="7" t="n">
+      <c r="C24" s="2">
         <v>374044</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="4" t="n">
+      <c r="G24" s="5">
         <v>40930</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="J24" s="5" t="n">
+      <c r="J24" s="6">
         <v>28000</v>
       </c>
-      <c r="K24" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" s="5" t="n">
+      <c r="K24" s="4">
+        <v>0</v>
+      </c>
+      <c r="L24" s="6">
         <v>28000</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N24" s="6" t="n">
+      <c r="M24" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N24" s="7">
         <v>1322</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="0" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="false" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>